--- a/Software Development/amicus-bot-framework/resource/food_list.xlsx
+++ b/Software Development/amicus-bot-framework/resource/food_list.xlsx
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewoojang/Desktop/spring2019/cs210b/BMW-2/Software Development/amicus-bot-framework/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7588444-ADDA-2B45-8DA9-826EE528D414}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76E166-1FFE-C841-8175-57F8AD9E72B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chains - specific" sheetId="1" r:id="rId1"/>
     <sheet name="General (contains)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
   <si>
     <t>Type (if user query contains)</t>
   </si>
@@ -260,9 +268,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
     <t>Tresidder Memorial</t>
   </si>
   <si>
@@ -275,9 +280,6 @@
     <t>El Camino Real, Menlo Park</t>
   </si>
   <si>
-    <t>Coupa</t>
-  </si>
-  <si>
     <t>Y2E2</t>
   </si>
   <si>
@@ -290,9 +292,6 @@
     <t>GSB</t>
   </si>
   <si>
-    <t>Peet's</t>
-  </si>
-  <si>
     <t>Campus Drive, Stanford</t>
   </si>
   <si>
@@ -302,9 +301,6 @@
     <t>Santa Cruz Avenue, Menlo Park</t>
   </si>
   <si>
-    <t>Pizza My Heart</t>
-  </si>
-  <si>
     <t>Middlefield Road, Palo Alto</t>
   </si>
   <si>
@@ -332,9 +328,6 @@
     <t>Monroe St, Santa Clara</t>
   </si>
   <si>
-    <t>Pizza Hut</t>
-  </si>
-  <si>
     <t>Middefield Rd, Menlo Park</t>
   </si>
   <si>
@@ -344,9 +337,6 @@
     <t>Showers Dr, Mountain View</t>
   </si>
   <si>
-    <t>Domino's</t>
-  </si>
-  <si>
     <t>Cambridge Ave, Palo Alto</t>
   </si>
   <si>
@@ -356,9 +346,6 @@
     <t>Cabrillo Ave, Santa Clara</t>
   </si>
   <si>
-    <t>Mountain Mike's Pizza</t>
-  </si>
-  <si>
     <t>Middlefield Rd, Palo Alto</t>
   </si>
   <si>
@@ -371,9 +358,6 @@
     <t>El Camino Real, Belmont</t>
   </si>
   <si>
-    <t>In-N-Out Burger</t>
-  </si>
-  <si>
     <t>N Rengstorff Ave, Mountain View</t>
   </si>
   <si>
@@ -386,27 +370,18 @@
     <t>Industrial Rd, San Carlos</t>
   </si>
   <si>
-    <t>Carl's Jr.</t>
-  </si>
-  <si>
     <t>El Camino Real, Los Altos</t>
   </si>
   <si>
     <t>Middlefield Rd, Mountain View</t>
   </si>
   <si>
-    <t>McDonald's</t>
-  </si>
-  <si>
     <t>El Camino Real, Palo Alto</t>
   </si>
   <si>
     <t>E Bayshore Rd, East Palo Alto</t>
   </si>
   <si>
-    <t>Burger King</t>
-  </si>
-  <si>
     <t>Middlefield Rd, Redwood City</t>
   </si>
   <si>
@@ -416,9 +391,6 @@
     <t>Skyway Rd, San Carlos</t>
   </si>
   <si>
-    <t>Popeyes</t>
-  </si>
-  <si>
     <t>Woodside Rd, Redwood City</t>
   </si>
   <si>
@@ -428,39 +400,24 @@
     <t>El Camino Real, Santa Clara</t>
   </si>
   <si>
-    <t>Kentucky Fried Chicken</t>
-  </si>
-  <si>
     <t>Charleston Rd, Mountain View</t>
   </si>
   <si>
-    <t>Subway</t>
-  </si>
-  <si>
     <t>Stanford University</t>
   </si>
   <si>
     <t>California Ave, Palo Alto</t>
   </si>
   <si>
-    <t>Chipotle</t>
-  </si>
-  <si>
     <t>El Monte Ave Ste A, Mountain View</t>
   </si>
   <si>
-    <t>Baskin Robbins</t>
-  </si>
-  <si>
     <t>Santa Cruz Ave, Menlo Park</t>
   </si>
   <si>
     <t>E Bayshore Rd, Palo Alto</t>
   </si>
   <si>
-    <t>Chick-Fil-A</t>
-  </si>
-  <si>
     <t>Headquarters Dr, San Jose</t>
   </si>
   <si>
@@ -470,9 +427,6 @@
     <t>Mowry Ave, Fremont</t>
   </si>
   <si>
-    <t>Jack in the Box</t>
-  </si>
-  <si>
     <t>Willow Rd, Menlo Park</t>
   </si>
   <si>
@@ -489,6 +443,66 @@
   </si>
   <si>
     <t>healthy food</t>
+  </si>
+  <si>
+    <t>starbucks</t>
+  </si>
+  <si>
+    <t>coupa</t>
+  </si>
+  <si>
+    <t>peet's</t>
+  </si>
+  <si>
+    <t>pizza my heart</t>
+  </si>
+  <si>
+    <t>philz</t>
+  </si>
+  <si>
+    <t>california pizza kitchen</t>
+  </si>
+  <si>
+    <t>pizza hut</t>
+  </si>
+  <si>
+    <t>domino's</t>
+  </si>
+  <si>
+    <t>mountain mike's pizza</t>
+  </si>
+  <si>
+    <t>in-n-out burger</t>
+  </si>
+  <si>
+    <t>carl's jr.</t>
+  </si>
+  <si>
+    <t>mcdonald's</t>
+  </si>
+  <si>
+    <t>burger king</t>
+  </si>
+  <si>
+    <t>popeyes</t>
+  </si>
+  <si>
+    <t>kentucky fried chicken</t>
+  </si>
+  <si>
+    <t>subway</t>
+  </si>
+  <si>
+    <t>chipotle</t>
+  </si>
+  <si>
+    <t>baskin robbins</t>
+  </si>
+  <si>
+    <t>chick-fil-a</t>
+  </si>
+  <si>
+    <t>jack in the box</t>
   </si>
 </sst>
 </file>
@@ -861,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -893,343 +907,343 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>85</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>89</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="C4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2217,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,7 +2307,7 @@
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -2322,7 +2336,7 @@
     </row>
     <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -2351,7 +2365,7 @@
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2380,7 +2394,7 @@
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2409,7 +2423,7 @@
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>

--- a/Software Development/amicus-bot-framework/resource/food_list.xlsx
+++ b/Software Development/amicus-bot-framework/resource/food_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaewoojang/Desktop/spring2019/cs210b/BMW-2/Software Development/amicus-bot-framework/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76E166-1FFE-C841-8175-57F8AD9E72B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE96F5E9-FE77-0A42-AF82-B7FFADC5E76F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chains - specific" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
